--- a/target/test-classes/TestData/TestConfiguration.xlsx
+++ b/target/test-classes/TestData/TestConfiguration.xlsx
@@ -5,18 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\Calc Jekins code 1111\JENCALC\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\OneDrive\Desktop\FinalJenkinsCalc\Pulsora_Calculator\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537B6BFA-34FF-4AB9-8C16-E5E47F46CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA1C4D-A2D9-439A-BB45-DB4D5627DD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -117,10 +126,10 @@
     <t>MultiSet</t>
   </si>
   <si>
+    <t>com</t>
+  </si>
+  <si>
     <t>qa</t>
-  </si>
-  <si>
-    <t>com</t>
   </si>
 </sst>
 </file>
@@ -694,18 +703,18 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.109375" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="85.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="85.5546875" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="46" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -714,14 +723,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
       <c r="B3" s="9" t="s">
         <v>20</v>
@@ -730,30 +739,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -764,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
       <c r="B8" s="9" t="s">
         <v>22</v>
@@ -773,7 +782,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="9" t="s">
         <v>23</v>
@@ -782,12 +791,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -799,7 +808,7 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -808,7 +817,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -817,7 +826,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -826,7 +835,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -835,12 +844,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -851,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -862,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -873,7 +882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -884,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>

--- a/target/test-classes/TestData/TestConfiguration.xlsx
+++ b/target/test-classes/TestData/TestConfiguration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\Calc Jekins code 1111\JENCALC\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\GitCalcJenkins\Pulsora_Calculator\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537B6BFA-34FF-4AB9-8C16-E5E47F46CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767D8B27-9A0F-46C7-A902-DFF4C80C9856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="105" yWindow="750" windowWidth="23895" windowHeight="12750" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="1" r:id="rId1"/>
@@ -697,15 +697,15 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.140625" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="40" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="85.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="85.5703125" style="2" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="46" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -714,14 +714,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="9" t="s">
         <v>20</v>
@@ -730,7 +730,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="9" t="s">
         <v>21</v>
@@ -739,7 +739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="9" t="s">
         <v>27</v>
@@ -748,12 +748,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="9"/>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="9" t="s">
         <v>22</v>
@@ -773,7 +773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="9" t="s">
         <v>23</v>
@@ -782,12 +782,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="8"/>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>4</v>
       </c>
@@ -799,7 +799,7 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="9" t="s">
         <v>6</v>
@@ -808,7 +808,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="9" t="s">
         <v>7</v>
@@ -817,7 +817,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="9" t="s">
         <v>8</v>
@@ -826,7 +826,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
@@ -835,12 +835,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="8"/>
       <c r="C16" s="13"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>10</v>
       </c>
@@ -851,7 +851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>15</v>
       </c>
@@ -873,7 +873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -884,7 +884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
